--- a/posesiones/1469947.xlsx
+++ b/posesiones/1469947.xlsx
@@ -1916,10 +1916,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1960,7 +1960,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -2010,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -2060,7 +2060,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2110,7 +2110,7 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>21</v>
@@ -2160,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2210,7 +2210,7 @@
         <v>1</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R9">
         <v>16</v>
@@ -2263,7 +2263,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -2310,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -2360,7 +2360,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2410,7 +2410,7 @@
         <v>1</v>
       </c>
       <c r="Q13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R13">
         <v>19</v>
@@ -2460,7 +2460,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -2510,7 +2510,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2557,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2604,7 +2604,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -2651,7 +2651,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -2701,7 +2701,7 @@
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R19">
         <v>31</v>
@@ -2754,7 +2754,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2804,7 +2804,7 @@
         <v>1</v>
       </c>
       <c r="Q21">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R21">
         <v>5</v>
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -2904,7 +2904,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -2951,7 +2951,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -3045,7 +3045,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -3095,7 +3095,7 @@
         <v>1</v>
       </c>
       <c r="Q27">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R27">
         <v>5</v>
@@ -3148,7 +3148,7 @@
         <v>1</v>
       </c>
       <c r="Q28">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R28">
         <v>20</v>
@@ -3198,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -3245,7 +3245,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -3292,7 +3292,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -3342,7 +3342,7 @@
         <v>1</v>
       </c>
       <c r="Q32">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R32">
         <v>8</v>
@@ -3395,7 +3395,7 @@
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R33">
         <v>11</v>
@@ -3445,7 +3445,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -3495,7 +3495,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -3545,7 +3545,7 @@
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R36">
         <v>10</v>
@@ -3598,7 +3598,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -3648,7 +3648,7 @@
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R38">
         <v>6</v>
@@ -3698,7 +3698,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -3748,7 +3748,7 @@
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R40">
         <v>12</v>
@@ -3798,7 +3798,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -3848,7 +3848,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -3898,7 +3898,7 @@
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R43">
         <v>21</v>
@@ -3951,7 +3951,7 @@
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R44">
         <v>19</v>
@@ -4004,7 +4004,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -4054,7 +4054,7 @@
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R46">
         <v>12</v>
@@ -4107,7 +4107,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -4154,7 +4154,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -4201,7 +4201,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -4251,7 +4251,7 @@
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R50">
         <v>17</v>
@@ -4304,7 +4304,7 @@
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R51">
         <v>23</v>
@@ -4354,7 +4354,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -4398,7 +4398,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -4448,7 +4448,7 @@
         <v>1</v>
       </c>
       <c r="Q54">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R54">
         <v>14</v>
@@ -4498,7 +4498,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -4548,7 +4548,7 @@
         <v>1</v>
       </c>
       <c r="Q56">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R56">
         <v>20</v>
@@ -4598,7 +4598,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -4648,7 +4648,7 @@
         <v>1</v>
       </c>
       <c r="Q58">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R58">
         <v>7</v>
@@ -4698,7 +4698,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -4748,7 +4748,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -4798,7 +4798,7 @@
         <v>1</v>
       </c>
       <c r="Q61">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R61">
         <v>9</v>
@@ -4848,7 +4848,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -4895,7 +4895,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -4945,7 +4945,7 @@
         <v>1</v>
       </c>
       <c r="Q64">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R64">
         <v>23</v>
@@ -4995,7 +4995,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -5042,7 +5042,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -5092,7 +5092,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -5142,7 +5142,7 @@
         <v>1</v>
       </c>
       <c r="Q68">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R68">
         <v>25</v>
@@ -5195,7 +5195,7 @@
         <v>1</v>
       </c>
       <c r="Q69">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R69">
         <v>3</v>
@@ -5245,7 +5245,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="71" spans="1:18">
@@ -5292,7 +5292,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -5339,7 +5339,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -5433,7 +5433,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="75" spans="1:18">
@@ -5480,7 +5480,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -5527,7 +5527,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="77" spans="1:18">
@@ -5577,7 +5577,7 @@
         <v>1</v>
       </c>
       <c r="Q77">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R77">
         <v>15</v>
@@ -5630,7 +5630,7 @@
         <v>1</v>
       </c>
       <c r="Q78">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R78">
         <v>4</v>
@@ -5680,7 +5680,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -5727,7 +5727,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -5774,7 +5774,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="82" spans="1:18">
@@ -5821,7 +5821,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -5871,7 +5871,7 @@
         <v>1</v>
       </c>
       <c r="Q83">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R83">
         <v>26</v>
@@ -5924,7 +5924,7 @@
         <v>1</v>
       </c>
       <c r="Q84">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R84">
         <v>19</v>
@@ -5974,7 +5974,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -6024,7 +6024,7 @@
         <v>1</v>
       </c>
       <c r="Q86">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R86">
         <v>15</v>
@@ -6074,7 +6074,7 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -6121,7 +6121,7 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -6171,7 +6171,7 @@
         <v>1</v>
       </c>
       <c r="Q89">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R89">
         <v>14</v>
@@ -6221,7 +6221,7 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -6268,7 +6268,7 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -6315,7 +6315,7 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="93" spans="1:18">
@@ -6362,7 +6362,7 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -6409,7 +6409,7 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -6456,7 +6456,7 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="96" spans="1:18">
@@ -6503,7 +6503,7 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -6553,7 +6553,7 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -6600,7 +6600,7 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -6647,7 +6647,7 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -6694,7 +6694,7 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -6741,7 +6741,7 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="102" spans="1:18">
@@ -6791,7 +6791,7 @@
         <v>1</v>
       </c>
       <c r="Q102">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R102">
         <v>10</v>
@@ -6841,7 +6841,7 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="104" spans="1:18">
@@ -6891,7 +6891,7 @@
         <v>1</v>
       </c>
       <c r="Q104">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R104">
         <v>17</v>
@@ -6941,7 +6941,7 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="106" spans="1:18">
@@ -6991,7 +6991,7 @@
         <v>1</v>
       </c>
       <c r="Q106">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R106">
         <v>15</v>
@@ -7044,7 +7044,7 @@
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="108" spans="1:18">
@@ -7094,7 +7094,7 @@
         <v>1</v>
       </c>
       <c r="Q108">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R108">
         <v>10</v>
@@ -7147,7 +7147,7 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="110" spans="1:18">
@@ -7197,7 +7197,7 @@
         <v>1</v>
       </c>
       <c r="Q110">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R110">
         <v>10</v>
@@ -7247,7 +7247,7 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="112" spans="1:18">
@@ -7297,7 +7297,7 @@
         <v>1</v>
       </c>
       <c r="Q112">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R112">
         <v>19</v>
@@ -7350,7 +7350,7 @@
         <v>0</v>
       </c>
       <c r="Q113">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="114" spans="1:18">
@@ -7400,7 +7400,7 @@
         <v>1</v>
       </c>
       <c r="Q114">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R114">
         <v>16</v>
@@ -7450,7 +7450,7 @@
         <v>0</v>
       </c>
       <c r="Q115">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="116" spans="1:18">
@@ -7500,7 +7500,7 @@
         <v>0</v>
       </c>
       <c r="Q116">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="117" spans="1:18">
@@ -7550,7 +7550,7 @@
         <v>1</v>
       </c>
       <c r="Q117">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R117">
         <v>12</v>
@@ -7600,7 +7600,7 @@
         <v>0</v>
       </c>
       <c r="Q118">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="119" spans="1:18">
@@ -7647,7 +7647,7 @@
         <v>0</v>
       </c>
       <c r="Q119">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="120" spans="1:18">
@@ -7694,7 +7694,7 @@
         <v>0</v>
       </c>
       <c r="Q120">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="121" spans="1:18">
@@ -7744,7 +7744,7 @@
         <v>1</v>
       </c>
       <c r="Q121">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R121">
         <v>0</v>
@@ -7797,7 +7797,7 @@
         <v>0</v>
       </c>
       <c r="Q122">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="123" spans="1:18">
@@ -7847,7 +7847,7 @@
         <v>1</v>
       </c>
       <c r="Q123">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R123">
         <v>15</v>
@@ -7897,7 +7897,7 @@
         <v>0</v>
       </c>
       <c r="Q124">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="125" spans="1:18">
@@ -7947,7 +7947,7 @@
         <v>1</v>
       </c>
       <c r="Q125">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R125">
         <v>13</v>
@@ -7997,7 +7997,7 @@
         <v>0</v>
       </c>
       <c r="Q126">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="127" spans="1:18">
@@ -8044,7 +8044,7 @@
         <v>0</v>
       </c>
       <c r="Q127">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="128" spans="1:18">
@@ -8091,7 +8091,7 @@
         <v>0</v>
       </c>
       <c r="Q128">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="129" spans="1:18">
@@ -8138,7 +8138,7 @@
         <v>0</v>
       </c>
       <c r="Q129">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="130" spans="1:18">
@@ -8185,7 +8185,7 @@
         <v>0</v>
       </c>
       <c r="Q130">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="131" spans="1:18">
@@ -8232,7 +8232,7 @@
         <v>0</v>
       </c>
       <c r="Q131">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="132" spans="1:18">
@@ -8279,7 +8279,7 @@
         <v>0</v>
       </c>
       <c r="Q132">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="133" spans="1:18">
@@ -8326,7 +8326,7 @@
         <v>0</v>
       </c>
       <c r="Q133">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="134" spans="1:18">
@@ -8373,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="Q134">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="135" spans="1:18">
@@ -8420,7 +8420,7 @@
         <v>0</v>
       </c>
       <c r="Q135">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="136" spans="1:18">
@@ -8467,7 +8467,7 @@
         <v>0</v>
       </c>
       <c r="Q136">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="137" spans="1:18">
@@ -8514,7 +8514,7 @@
         <v>0</v>
       </c>
       <c r="Q137">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="138" spans="1:18">
@@ -8564,7 +8564,7 @@
         <v>1</v>
       </c>
       <c r="Q138">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R138">
         <v>5</v>
@@ -8617,7 +8617,7 @@
         <v>1</v>
       </c>
       <c r="Q139">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R139">
         <v>4</v>
@@ -8670,7 +8670,7 @@
         <v>1</v>
       </c>
       <c r="Q140">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R140">
         <v>3</v>
@@ -8714,10 +8714,10 @@
         <v>1</v>
       </c>
       <c r="P141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q141">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="142" spans="1:18">
@@ -8764,7 +8764,7 @@
         <v>0</v>
       </c>
       <c r="Q142">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="143" spans="1:18">
@@ -8811,7 +8811,7 @@
         <v>0</v>
       </c>
       <c r="Q143">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="144" spans="1:18">
@@ -8858,7 +8858,7 @@
         <v>0</v>
       </c>
       <c r="Q144">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="145" spans="1:18">
@@ -8905,7 +8905,7 @@
         <v>0</v>
       </c>
       <c r="Q145">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="146" spans="1:18">
@@ -8946,10 +8946,10 @@
         <v>1</v>
       </c>
       <c r="P146" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q146">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="147" spans="1:18">
@@ -8999,7 +8999,7 @@
         <v>1</v>
       </c>
       <c r="Q147">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R147">
         <v>18</v>
@@ -9049,7 +9049,7 @@
         <v>0</v>
       </c>
       <c r="Q148">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="149" spans="1:18">
@@ -9096,7 +9096,7 @@
         <v>0</v>
       </c>
       <c r="Q149">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="150" spans="1:18">
@@ -9146,7 +9146,7 @@
         <v>1</v>
       </c>
       <c r="Q150">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R150">
         <v>0</v>
@@ -9199,7 +9199,7 @@
         <v>1</v>
       </c>
       <c r="Q151">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R151">
         <v>14</v>
@@ -9249,7 +9249,7 @@
         <v>0</v>
       </c>
       <c r="Q152">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="153" spans="1:18">
@@ -9299,7 +9299,7 @@
         <v>1</v>
       </c>
       <c r="Q153">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R153">
         <v>16</v>
@@ -9349,7 +9349,7 @@
         <v>0</v>
       </c>
       <c r="Q154">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="155" spans="1:18">
@@ -9399,7 +9399,7 @@
         <v>1</v>
       </c>
       <c r="Q155">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R155">
         <v>17</v>
@@ -9449,7 +9449,7 @@
         <v>0</v>
       </c>
       <c r="Q156">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="157" spans="1:18">
@@ -9499,7 +9499,7 @@
         <v>0</v>
       </c>
       <c r="Q157">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="158" spans="1:18">
@@ -9546,7 +9546,7 @@
         <v>0</v>
       </c>
       <c r="Q158">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="159" spans="1:18">
@@ -9593,7 +9593,7 @@
         <v>0</v>
       </c>
       <c r="Q159">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="160" spans="1:18">
@@ -9640,7 +9640,7 @@
         <v>0</v>
       </c>
       <c r="Q160">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="161" spans="1:18">
@@ -9687,7 +9687,7 @@
         <v>0</v>
       </c>
       <c r="Q161">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="162" spans="1:18">
@@ -9734,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="Q162">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="163" spans="1:18">
@@ -9781,7 +9781,7 @@
         <v>0</v>
       </c>
       <c r="Q163">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="164" spans="1:18">
@@ -9831,7 +9831,7 @@
         <v>1</v>
       </c>
       <c r="Q164">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R164">
         <v>29</v>
@@ -9881,7 +9881,7 @@
         <v>0</v>
       </c>
       <c r="Q165">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="166" spans="1:18">
@@ -9928,7 +9928,7 @@
         <v>0</v>
       </c>
       <c r="Q166">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="167" spans="1:18">
@@ -9978,7 +9978,7 @@
         <v>0</v>
       </c>
       <c r="Q167">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="168" spans="1:18">
@@ -10028,7 +10028,7 @@
         <v>1</v>
       </c>
       <c r="Q168">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R168">
         <v>20</v>
@@ -10081,7 +10081,7 @@
         <v>1</v>
       </c>
       <c r="Q169">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R169">
         <v>15</v>
@@ -10131,7 +10131,7 @@
         <v>0</v>
       </c>
       <c r="Q170">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="171" spans="1:18">
@@ -10178,7 +10178,7 @@
         <v>0</v>
       </c>
       <c r="Q171">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="172" spans="1:18">
@@ -10225,7 +10225,7 @@
         <v>0</v>
       </c>
       <c r="Q172">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="173" spans="1:18">
@@ -10272,7 +10272,7 @@
         <v>0</v>
       </c>
       <c r="Q173">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="174" spans="1:18">
@@ -10319,7 +10319,7 @@
         <v>0</v>
       </c>
       <c r="Q174">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="175" spans="1:18">
@@ -10369,7 +10369,7 @@
         <v>1</v>
       </c>
       <c r="Q175">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R175">
         <v>14</v>
@@ -10422,7 +10422,7 @@
         <v>0</v>
       </c>
       <c r="Q176">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="177" spans="1:18">
@@ -10472,7 +10472,7 @@
         <v>1</v>
       </c>
       <c r="Q177">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R177">
         <v>11</v>
@@ -10522,7 +10522,7 @@
         <v>0</v>
       </c>
       <c r="Q178">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="179" spans="1:18">
@@ -10572,7 +10572,7 @@
         <v>1</v>
       </c>
       <c r="Q179">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R179">
         <v>20</v>
@@ -10622,7 +10622,7 @@
         <v>0</v>
       </c>
       <c r="Q180">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="181" spans="1:18">
@@ -10669,7 +10669,7 @@
         <v>0</v>
       </c>
       <c r="Q181">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="182" spans="1:18">
@@ -10719,7 +10719,7 @@
         <v>1</v>
       </c>
       <c r="Q182">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R182">
         <v>32</v>
@@ -10769,7 +10769,7 @@
         <v>0</v>
       </c>
       <c r="Q183">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="184" spans="1:18">
@@ -10819,7 +10819,7 @@
         <v>0</v>
       </c>
       <c r="Q184">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="185" spans="1:18">
@@ -10866,7 +10866,7 @@
         <v>0</v>
       </c>
       <c r="Q185">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="186" spans="1:18">
@@ -10913,7 +10913,7 @@
         <v>0</v>
       </c>
       <c r="Q186">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="187" spans="1:18">
@@ -10960,7 +10960,7 @@
         <v>0</v>
       </c>
       <c r="Q187">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="188" spans="1:18">
@@ -11007,7 +11007,7 @@
         <v>0</v>
       </c>
       <c r="Q188">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="189" spans="1:18">
@@ -11054,7 +11054,7 @@
         <v>0</v>
       </c>
       <c r="Q189">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="190" spans="1:18">
@@ -11101,7 +11101,7 @@
         <v>0</v>
       </c>
       <c r="Q190">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="191" spans="1:18">
@@ -11148,7 +11148,7 @@
         <v>0</v>
       </c>
       <c r="Q191">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="192" spans="1:18">
@@ -11195,7 +11195,7 @@
         <v>0</v>
       </c>
       <c r="Q192">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="193" spans="1:18">
@@ -11242,7 +11242,7 @@
         <v>0</v>
       </c>
       <c r="Q193">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="194" spans="1:18">
@@ -11289,7 +11289,7 @@
         <v>0</v>
       </c>
       <c r="Q194">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="195" spans="1:18">
@@ -11336,7 +11336,7 @@
         <v>0</v>
       </c>
       <c r="Q195">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="196" spans="1:18">
@@ -11386,7 +11386,7 @@
         <v>1</v>
       </c>
       <c r="Q196">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R196">
         <v>42</v>
@@ -11433,7 +11433,7 @@
         <v>0</v>
       </c>
       <c r="Q197">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="198" spans="1:18">
@@ -11480,7 +11480,7 @@
         <v>0</v>
       </c>
       <c r="Q198">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="199" spans="1:18">
@@ -11527,7 +11527,7 @@
         <v>0</v>
       </c>
       <c r="Q199">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="200" spans="1:18">
@@ -11577,7 +11577,7 @@
         <v>1</v>
       </c>
       <c r="Q200">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R200">
         <v>11</v>
@@ -11627,7 +11627,7 @@
         <v>0</v>
       </c>
       <c r="Q201">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="202" spans="1:18">
@@ -11677,7 +11677,7 @@
         <v>1</v>
       </c>
       <c r="Q202">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R202">
         <v>18</v>
@@ -11727,7 +11727,7 @@
         <v>0</v>
       </c>
       <c r="Q203">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="204" spans="1:18">
@@ -11777,7 +11777,7 @@
         <v>1</v>
       </c>
       <c r="Q204">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R204">
         <v>21</v>
@@ -11824,7 +11824,7 @@
         <v>0</v>
       </c>
       <c r="Q205">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="206" spans="1:18">
@@ -11874,7 +11874,7 @@
         <v>1</v>
       </c>
       <c r="Q206">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R206">
         <v>22</v>
@@ -11924,7 +11924,7 @@
         <v>0</v>
       </c>
       <c r="Q207">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="208" spans="1:18">
@@ -11974,7 +11974,7 @@
         <v>1</v>
       </c>
       <c r="Q208">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R208">
         <v>19</v>
@@ -12027,7 +12027,7 @@
         <v>0</v>
       </c>
       <c r="Q209">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="210" spans="1:18">
@@ -12077,7 +12077,7 @@
         <v>1</v>
       </c>
       <c r="Q210">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R210">
         <v>6</v>
@@ -12130,7 +12130,7 @@
         <v>1</v>
       </c>
       <c r="Q211">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R211">
         <v>14</v>
@@ -12180,7 +12180,7 @@
         <v>0</v>
       </c>
       <c r="Q212">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="213" spans="1:18">
@@ -12230,7 +12230,7 @@
         <v>1</v>
       </c>
       <c r="Q213">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R213">
         <v>8</v>
@@ -12283,7 +12283,7 @@
         <v>0</v>
       </c>
       <c r="Q214">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="215" spans="1:18">
@@ -12333,7 +12333,7 @@
         <v>1</v>
       </c>
       <c r="Q215">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R215">
         <v>5</v>
@@ -12386,7 +12386,7 @@
         <v>0</v>
       </c>
       <c r="Q216">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="217" spans="1:18">
@@ -12433,7 +12433,7 @@
         <v>0</v>
       </c>
       <c r="Q217">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="218" spans="1:18">
@@ -12483,7 +12483,7 @@
         <v>0</v>
       </c>
       <c r="Q218">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="219" spans="1:18">
@@ -12533,7 +12533,7 @@
         <v>1</v>
       </c>
       <c r="Q219">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R219">
         <v>16</v>
@@ -12583,7 +12583,7 @@
         <v>0</v>
       </c>
       <c r="Q220">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="221" spans="1:18">
@@ -12630,7 +12630,7 @@
         <v>0</v>
       </c>
       <c r="Q221">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="222" spans="1:18">
@@ -12680,7 +12680,7 @@
         <v>1</v>
       </c>
       <c r="Q222">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R222">
         <v>11</v>
@@ -12733,7 +12733,7 @@
         <v>1</v>
       </c>
       <c r="Q223">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R223">
         <v>13</v>
@@ -12783,7 +12783,7 @@
         <v>0</v>
       </c>
       <c r="Q224">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="225" spans="1:18">
@@ -12833,7 +12833,7 @@
         <v>1</v>
       </c>
       <c r="Q225">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R225">
         <v>12</v>
@@ -12883,7 +12883,7 @@
         <v>0</v>
       </c>
       <c r="Q226">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="227" spans="1:18">
@@ -12930,7 +12930,7 @@
         <v>0</v>
       </c>
       <c r="Q227">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="228" spans="1:18">
@@ -12977,7 +12977,7 @@
         <v>0</v>
       </c>
       <c r="Q228">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="229" spans="1:18">
@@ -13027,7 +13027,7 @@
         <v>1</v>
       </c>
       <c r="Q229">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R229">
         <v>16</v>
@@ -13077,7 +13077,7 @@
         <v>0</v>
       </c>
       <c r="Q230">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="231" spans="1:18">
@@ -13124,7 +13124,7 @@
         <v>0</v>
       </c>
       <c r="Q231">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="232" spans="1:18">
@@ -13171,7 +13171,7 @@
         <v>0</v>
       </c>
       <c r="Q232">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="233" spans="1:18">
@@ -13218,7 +13218,7 @@
         <v>0</v>
       </c>
       <c r="Q233">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="234" spans="1:18">
@@ -13265,7 +13265,7 @@
         <v>0</v>
       </c>
       <c r="Q234">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="235" spans="1:18">
@@ -13312,7 +13312,7 @@
         <v>0</v>
       </c>
       <c r="Q235">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="236" spans="1:18">
@@ -13359,7 +13359,7 @@
         <v>0</v>
       </c>
       <c r="Q236">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="237" spans="1:18">
@@ -13409,7 +13409,7 @@
         <v>1</v>
       </c>
       <c r="Q237">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R237">
         <v>17</v>
@@ -13459,7 +13459,7 @@
         <v>0</v>
       </c>
       <c r="Q238">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="239" spans="1:18">
@@ -13506,7 +13506,7 @@
         <v>0</v>
       </c>
       <c r="Q239">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="240" spans="1:18">
@@ -13553,7 +13553,7 @@
         <v>0</v>
       </c>
       <c r="Q240">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="241" spans="1:18">
@@ -13600,7 +13600,7 @@
         <v>0</v>
       </c>
       <c r="Q241">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="242" spans="1:18">
@@ -13647,7 +13647,7 @@
         <v>0</v>
       </c>
       <c r="Q242">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="243" spans="1:18">
@@ -13694,7 +13694,7 @@
         <v>0</v>
       </c>
       <c r="Q243">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="244" spans="1:18">
@@ -13744,7 +13744,7 @@
         <v>0</v>
       </c>
       <c r="Q244">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="245" spans="1:18">
@@ -13791,7 +13791,7 @@
         <v>0</v>
       </c>
       <c r="Q245">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="246" spans="1:18">
@@ -13841,7 +13841,7 @@
         <v>0</v>
       </c>
       <c r="Q246">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="247" spans="1:18">
@@ -13891,7 +13891,7 @@
         <v>1</v>
       </c>
       <c r="Q247">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R247">
         <v>33</v>
@@ -13944,7 +13944,7 @@
         <v>1</v>
       </c>
       <c r="Q248">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="R248">
         <v>14</v>
@@ -13994,7 +13994,7 @@
         <v>0</v>
       </c>
       <c r="Q249">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="250" spans="1:18">
@@ -14044,7 +14044,7 @@
         <v>0</v>
       </c>
       <c r="Q250">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="251" spans="1:18">
@@ -14094,7 +14094,7 @@
         <v>1</v>
       </c>
       <c r="Q251">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="R251">
         <v>23</v>
@@ -14144,7 +14144,7 @@
         <v>0</v>
       </c>
       <c r="Q252">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="253" spans="1:18">
@@ -14191,7 +14191,7 @@
         <v>0</v>
       </c>
       <c r="Q253">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="254" spans="1:18">
@@ -14238,7 +14238,7 @@
         <v>0</v>
       </c>
       <c r="Q254">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="255" spans="1:18">
@@ -14285,7 +14285,7 @@
         <v>0</v>
       </c>
       <c r="Q255">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="256" spans="1:18">
@@ -14335,7 +14335,7 @@
         <v>1</v>
       </c>
       <c r="Q256">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="R256">
         <v>12</v>
@@ -14385,7 +14385,7 @@
         <v>0</v>
       </c>
       <c r="Q257">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="258" spans="1:18">
@@ -14432,7 +14432,7 @@
         <v>0</v>
       </c>
       <c r="Q258">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="259" spans="1:18">
@@ -14482,7 +14482,7 @@
         <v>1</v>
       </c>
       <c r="Q259">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="R259">
         <v>23</v>
@@ -14532,7 +14532,7 @@
         <v>0</v>
       </c>
       <c r="Q260">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="261" spans="1:18">
@@ -14582,7 +14582,7 @@
         <v>1</v>
       </c>
       <c r="Q261">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="R261">
         <v>11</v>
@@ -14635,7 +14635,7 @@
         <v>0</v>
       </c>
       <c r="Q262">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="263" spans="1:18">
@@ -14685,7 +14685,7 @@
         <v>1</v>
       </c>
       <c r="Q263">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="R263">
         <v>6</v>
@@ -14735,7 +14735,7 @@
         <v>0</v>
       </c>
       <c r="Q264">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="265" spans="1:18">
@@ -14782,7 +14782,7 @@
         <v>0</v>
       </c>
       <c r="Q265">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="266" spans="1:18">
@@ -14829,7 +14829,7 @@
         <v>0</v>
       </c>
       <c r="Q266">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="267" spans="1:18">
@@ -14879,7 +14879,7 @@
         <v>1</v>
       </c>
       <c r="Q267">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="R267">
         <v>18</v>
@@ -14932,7 +14932,7 @@
         <v>1</v>
       </c>
       <c r="Q268">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="R268">
         <v>2</v>
@@ -14982,7 +14982,7 @@
         <v>0</v>
       </c>
       <c r="Q269">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="270" spans="1:18">
@@ -15023,10 +15023,10 @@
         <v>1</v>
       </c>
       <c r="P270" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q270">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="271" spans="1:18">
@@ -15073,7 +15073,7 @@
         <v>0</v>
       </c>
       <c r="Q271">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="272" spans="1:18">
@@ -15120,7 +15120,7 @@
         <v>0</v>
       </c>
       <c r="Q272">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="273" spans="1:18">
@@ -15167,7 +15167,7 @@
         <v>0</v>
       </c>
       <c r="Q273">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="274" spans="1:18">
@@ -15214,7 +15214,7 @@
         <v>0</v>
       </c>
       <c r="Q274">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="275" spans="1:18">
@@ -15261,7 +15261,7 @@
         <v>0</v>
       </c>
       <c r="Q275">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="276" spans="1:18">
@@ -15308,7 +15308,7 @@
         <v>0</v>
       </c>
       <c r="Q276">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="277" spans="1:18">
@@ -15355,7 +15355,7 @@
         <v>0</v>
       </c>
       <c r="Q277">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="278" spans="1:18">
@@ -15402,7 +15402,7 @@
         <v>0</v>
       </c>
       <c r="Q278">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="279" spans="1:18">
@@ -15449,7 +15449,7 @@
         <v>0</v>
       </c>
       <c r="Q279">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="280" spans="1:18">
@@ -15496,7 +15496,7 @@
         <v>0</v>
       </c>
       <c r="Q280">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="281" spans="1:18">
@@ -15543,7 +15543,7 @@
         <v>0</v>
       </c>
       <c r="Q281">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="282" spans="1:18">
@@ -15590,7 +15590,7 @@
         <v>0</v>
       </c>
       <c r="Q282">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="283" spans="1:18">
@@ -15631,10 +15631,10 @@
         <v>1</v>
       </c>
       <c r="P283" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q283">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="284" spans="1:18">
@@ -15684,7 +15684,7 @@
         <v>1</v>
       </c>
       <c r="Q284">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="R284">
         <v>23</v>
@@ -15737,7 +15737,7 @@
         <v>0</v>
       </c>
       <c r="Q285">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="286" spans="1:18">
@@ -15787,7 +15787,7 @@
         <v>1</v>
       </c>
       <c r="Q286">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="R286">
         <v>9</v>
@@ -15837,7 +15837,7 @@
         <v>0</v>
       </c>
       <c r="Q287">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="288" spans="1:18">
@@ -15884,7 +15884,7 @@
         <v>0</v>
       </c>
       <c r="Q288">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="289" spans="1:18">
@@ -15931,7 +15931,7 @@
         <v>0</v>
       </c>
       <c r="Q289">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="290" spans="1:18">
@@ -15981,7 +15981,7 @@
         <v>1</v>
       </c>
       <c r="Q290">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="R290">
         <v>25</v>
@@ -16034,7 +16034,7 @@
         <v>1</v>
       </c>
       <c r="Q291">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="R291">
         <v>9</v>
@@ -16087,7 +16087,7 @@
         <v>1</v>
       </c>
       <c r="Q292">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="R292">
         <v>17</v>
@@ -16140,7 +16140,7 @@
         <v>0</v>
       </c>
       <c r="Q293">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="294" spans="1:18">
@@ -16190,7 +16190,7 @@
         <v>1</v>
       </c>
       <c r="Q294">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="R294">
         <v>13</v>
@@ -16240,7 +16240,7 @@
         <v>0</v>
       </c>
       <c r="Q295">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="296" spans="1:18">
@@ -16287,7 +16287,7 @@
         <v>0</v>
       </c>
       <c r="Q296">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="297" spans="1:18">
@@ -16337,7 +16337,7 @@
         <v>0</v>
       </c>
       <c r="Q297">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="298" spans="1:18">
@@ -16387,7 +16387,7 @@
         <v>1</v>
       </c>
       <c r="Q298">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R298">
         <v>25</v>
@@ -16440,7 +16440,7 @@
         <v>0</v>
       </c>
       <c r="Q299">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="300" spans="1:18">
@@ -16490,7 +16490,7 @@
         <v>1</v>
       </c>
       <c r="Q300">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R300">
         <v>14</v>
@@ -16543,7 +16543,7 @@
         <v>0</v>
       </c>
       <c r="Q301">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="302" spans="1:18">
@@ -16593,7 +16593,7 @@
         <v>1</v>
       </c>
       <c r="Q302">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R302">
         <v>10</v>
@@ -16646,7 +16646,7 @@
         <v>0</v>
       </c>
       <c r="Q303">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="304" spans="1:18">
@@ -16696,7 +16696,7 @@
         <v>1</v>
       </c>
       <c r="Q304">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R304">
         <v>12</v>
@@ -16749,7 +16749,7 @@
         <v>0</v>
       </c>
       <c r="Q305">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="306" spans="1:18">
@@ -16799,7 +16799,7 @@
         <v>1</v>
       </c>
       <c r="Q306">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R306">
         <v>13</v>
@@ -16852,7 +16852,7 @@
         <v>0</v>
       </c>
       <c r="Q307">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="308" spans="1:18">
@@ -16899,7 +16899,7 @@
         <v>0</v>
       </c>
       <c r="Q308">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="309" spans="1:18">
@@ -16946,7 +16946,7 @@
         <v>0</v>
       </c>
       <c r="Q309">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="310" spans="1:18">
@@ -16993,7 +16993,7 @@
         <v>0</v>
       </c>
       <c r="Q310">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="311" spans="1:18">
@@ -17040,7 +17040,7 @@
         <v>0</v>
       </c>
       <c r="Q311">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="312" spans="1:18">
@@ -17087,7 +17087,7 @@
         <v>0</v>
       </c>
       <c r="Q312">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="313" spans="1:18">
@@ -17134,7 +17134,7 @@
         <v>0</v>
       </c>
       <c r="Q313">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="314" spans="1:18">
@@ -17181,7 +17181,7 @@
         <v>0</v>
       </c>
       <c r="Q314">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="315" spans="1:18">
@@ -17228,7 +17228,7 @@
         <v>0</v>
       </c>
       <c r="Q315">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="316" spans="1:18">
@@ -17275,7 +17275,7 @@
         <v>0</v>
       </c>
       <c r="Q316">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="317" spans="1:18">
@@ -17325,7 +17325,7 @@
         <v>0</v>
       </c>
       <c r="Q317">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="318" spans="1:18">
@@ -17375,7 +17375,7 @@
         <v>1</v>
       </c>
       <c r="Q318">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R318">
         <v>32</v>
@@ -17422,7 +17422,7 @@
         <v>0</v>
       </c>
       <c r="Q319">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="320" spans="1:18">
@@ -17472,7 +17472,7 @@
         <v>1</v>
       </c>
       <c r="Q320">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R320">
         <v>21</v>
@@ -17522,7 +17522,7 @@
         <v>0</v>
       </c>
       <c r="Q321">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="322" spans="1:18">
@@ -17572,7 +17572,7 @@
         <v>1</v>
       </c>
       <c r="Q322">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R322">
         <v>16</v>
@@ -17622,7 +17622,7 @@
         <v>0</v>
       </c>
       <c r="Q323">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="324" spans="1:18">
@@ -17672,7 +17672,7 @@
         <v>1</v>
       </c>
       <c r="Q324">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R324">
         <v>14</v>
@@ -17722,7 +17722,7 @@
         <v>0</v>
       </c>
       <c r="Q325">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="326" spans="1:18">
@@ -17769,7 +17769,7 @@
         <v>0</v>
       </c>
       <c r="Q326">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="327" spans="1:18">
@@ -17816,7 +17816,7 @@
         <v>0</v>
       </c>
       <c r="Q327">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="328" spans="1:18">
@@ -17863,7 +17863,7 @@
         <v>0</v>
       </c>
       <c r="Q328">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="329" spans="1:18">
@@ -17913,7 +17913,7 @@
         <v>1</v>
       </c>
       <c r="Q329">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R329">
         <v>18</v>
@@ -17963,7 +17963,7 @@
         <v>0</v>
       </c>
       <c r="Q330">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="331" spans="1:18">
@@ -18010,7 +18010,7 @@
         <v>0</v>
       </c>
       <c r="Q331">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="332" spans="1:18">
@@ -18057,7 +18057,7 @@
         <v>0</v>
       </c>
       <c r="Q332">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="333" spans="1:18">
@@ -18104,7 +18104,7 @@
         <v>0</v>
       </c>
       <c r="Q333">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="334" spans="1:18">
@@ -18151,7 +18151,7 @@
         <v>0</v>
       </c>
       <c r="Q334">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="335" spans="1:18">
@@ -18198,7 +18198,7 @@
         <v>0</v>
       </c>
       <c r="Q335">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="336" spans="1:18">
@@ -18248,7 +18248,7 @@
         <v>0</v>
       </c>
       <c r="Q336">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="337" spans="1:18">
@@ -18298,7 +18298,7 @@
         <v>1</v>
       </c>
       <c r="Q337">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R337">
         <v>34</v>
@@ -18345,7 +18345,7 @@
         <v>0</v>
       </c>
       <c r="Q338">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="339" spans="1:18">
@@ -18395,7 +18395,7 @@
         <v>1</v>
       </c>
       <c r="Q339">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R339">
         <v>22</v>
@@ -18448,7 +18448,7 @@
         <v>0</v>
       </c>
       <c r="Q340">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="341" spans="1:18">
@@ -18495,7 +18495,7 @@
         <v>0</v>
       </c>
       <c r="Q341">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="342" spans="1:18">
@@ -18542,7 +18542,7 @@
         <v>0</v>
       </c>
       <c r="Q342">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="343" spans="1:18">
@@ -18592,7 +18592,7 @@
         <v>1</v>
       </c>
       <c r="Q343">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R343">
         <v>25</v>
@@ -18645,7 +18645,7 @@
         <v>0</v>
       </c>
       <c r="Q344">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="345" spans="1:18">
@@ -18692,7 +18692,7 @@
         <v>0</v>
       </c>
       <c r="Q345">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="346" spans="1:18">
@@ -18739,7 +18739,7 @@
         <v>0</v>
       </c>
       <c r="Q346">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="347" spans="1:18">
@@ -18786,7 +18786,7 @@
         <v>0</v>
       </c>
       <c r="Q347">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="348" spans="1:18">
@@ -18833,7 +18833,7 @@
         <v>0</v>
       </c>
       <c r="Q348">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="349" spans="1:18">
@@ -18880,7 +18880,7 @@
         <v>0</v>
       </c>
       <c r="Q349">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="350" spans="1:18">
@@ -18930,7 +18930,7 @@
         <v>1</v>
       </c>
       <c r="Q350">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R350">
         <v>6</v>
@@ -18980,7 +18980,7 @@
         <v>0</v>
       </c>
       <c r="Q351">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="352" spans="1:18">
@@ -19027,7 +19027,7 @@
         <v>0</v>
       </c>
       <c r="Q352">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="353" spans="1:18">
@@ -19077,7 +19077,7 @@
         <v>1</v>
       </c>
       <c r="Q353">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R353">
         <v>14</v>
@@ -19127,7 +19127,7 @@
         <v>0</v>
       </c>
       <c r="Q354">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="355" spans="1:18">
@@ -19174,7 +19174,7 @@
         <v>0</v>
       </c>
       <c r="Q355">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="356" spans="1:18">
@@ -19221,7 +19221,7 @@
         <v>0</v>
       </c>
       <c r="Q356">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="357" spans="1:18">
@@ -19268,7 +19268,7 @@
         <v>0</v>
       </c>
       <c r="Q357">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="358" spans="1:18">
@@ -19318,7 +19318,7 @@
         <v>1</v>
       </c>
       <c r="Q358">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R358">
         <v>11</v>
@@ -19371,7 +19371,7 @@
         <v>1</v>
       </c>
       <c r="Q359">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R359">
         <v>10</v>
@@ -19424,7 +19424,7 @@
         <v>0</v>
       </c>
       <c r="Q360">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="361" spans="1:18">
@@ -19474,7 +19474,7 @@
         <v>1</v>
       </c>
       <c r="Q361">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R361">
         <v>12</v>
@@ -19527,7 +19527,7 @@
         <v>0</v>
       </c>
       <c r="Q362">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="363" spans="1:18">
@@ -19577,7 +19577,7 @@
         <v>1</v>
       </c>
       <c r="Q363">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R363">
         <v>13</v>
@@ -19630,7 +19630,7 @@
         <v>0</v>
       </c>
       <c r="Q364">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="365" spans="1:18">
@@ -19677,7 +19677,7 @@
         <v>0</v>
       </c>
       <c r="Q365">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="366" spans="1:18">
@@ -19724,7 +19724,7 @@
         <v>0</v>
       </c>
       <c r="Q366">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="367" spans="1:18">
@@ -19771,7 +19771,7 @@
         <v>0</v>
       </c>
       <c r="Q367">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="368" spans="1:18">
@@ -19818,7 +19818,7 @@
         <v>0</v>
       </c>
       <c r="Q368">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="369" spans="1:18">
@@ -19865,7 +19865,7 @@
         <v>0</v>
       </c>
       <c r="Q369">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="370" spans="1:18">
@@ -19915,7 +19915,7 @@
         <v>1</v>
       </c>
       <c r="Q370">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="R370">
         <v>12</v>
@@ -19965,7 +19965,7 @@
         <v>0</v>
       </c>
       <c r="Q371">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="372" spans="1:18">
@@ -20012,7 +20012,7 @@
         <v>1</v>
       </c>
       <c r="Q372">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="R372">
         <v>27</v>
@@ -20065,7 +20065,7 @@
         <v>1</v>
       </c>
       <c r="Q373">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="R373">
         <v>15</v>
@@ -20118,7 +20118,7 @@
         <v>0</v>
       </c>
       <c r="Q374">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="375" spans="1:18">
@@ -20168,7 +20168,7 @@
         <v>1</v>
       </c>
       <c r="Q375">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R375">
         <v>19</v>
@@ -20218,7 +20218,7 @@
         <v>0</v>
       </c>
       <c r="Q376">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="377" spans="1:18">
@@ -20265,7 +20265,7 @@
         <v>0</v>
       </c>
       <c r="Q377">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="378" spans="1:18">
@@ -20312,7 +20312,7 @@
         <v>0</v>
       </c>
       <c r="Q378">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="379" spans="1:18">
@@ -20359,7 +20359,7 @@
         <v>0</v>
       </c>
       <c r="Q379">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="380" spans="1:18">
@@ -20406,7 +20406,7 @@
         <v>0</v>
       </c>
       <c r="Q380">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="381" spans="1:18">
@@ -20453,7 +20453,7 @@
         <v>0</v>
       </c>
       <c r="Q381">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="382" spans="1:18">
@@ -20500,7 +20500,7 @@
         <v>0</v>
       </c>
       <c r="Q382">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="383" spans="1:18">
@@ -20547,7 +20547,7 @@
         <v>0</v>
       </c>
       <c r="Q383">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="384" spans="1:18">
@@ -20597,7 +20597,7 @@
         <v>1</v>
       </c>
       <c r="Q384">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="R384">
         <v>24</v>
@@ -20650,7 +20650,7 @@
         <v>0</v>
       </c>
       <c r="Q385">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="386" spans="1:18">
@@ -20700,7 +20700,7 @@
         <v>1</v>
       </c>
       <c r="Q386">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="R386">
         <v>13</v>
@@ -20750,7 +20750,7 @@
         <v>0</v>
       </c>
       <c r="Q387">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="388" spans="1:18">
@@ -20800,7 +20800,7 @@
         <v>0</v>
       </c>
       <c r="Q388">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="389" spans="1:18">
@@ -20850,7 +20850,7 @@
         <v>1</v>
       </c>
       <c r="Q389">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="R389">
         <v>36</v>
@@ -20900,7 +20900,7 @@
         <v>0</v>
       </c>
       <c r="Q390">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="391" spans="1:18">
@@ -20950,7 +20950,7 @@
         <v>0</v>
       </c>
       <c r="Q391">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="392" spans="1:18">
@@ -20997,7 +20997,7 @@
         <v>0</v>
       </c>
       <c r="Q392">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="393" spans="1:18">
@@ -21044,7 +21044,7 @@
         <v>0</v>
       </c>
       <c r="Q393">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="394" spans="1:18">
@@ -21094,7 +21094,7 @@
         <v>1</v>
       </c>
       <c r="Q394">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="R394">
         <v>31</v>
@@ -21147,7 +21147,7 @@
         <v>1</v>
       </c>
       <c r="Q395">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="R395">
         <v>0</v>
@@ -21191,10 +21191,10 @@
         <v>1</v>
       </c>
       <c r="P396" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q396">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="397" spans="1:18">
@@ -21241,7 +21241,7 @@
         <v>0</v>
       </c>
       <c r="Q397">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="398" spans="1:18">
@@ -21288,7 +21288,7 @@
         <v>0</v>
       </c>
       <c r="Q398">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="399" spans="1:18">
@@ -21329,10 +21329,10 @@
         <v>1</v>
       </c>
       <c r="P399" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q399">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="400" spans="1:18">
@@ -21382,7 +21382,7 @@
         <v>1</v>
       </c>
       <c r="Q400">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="R400">
         <v>17</v>
@@ -21432,7 +21432,7 @@
         <v>0</v>
       </c>
       <c r="Q401">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="402" spans="1:18">
@@ -21482,7 +21482,7 @@
         <v>1</v>
       </c>
       <c r="Q402">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="R402">
         <v>11</v>
@@ -21532,7 +21532,7 @@
         <v>0</v>
       </c>
       <c r="Q403">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="404" spans="1:18">
@@ -21582,7 +21582,7 @@
         <v>1</v>
       </c>
       <c r="Q404">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="R404">
         <v>26</v>
@@ -21635,7 +21635,7 @@
         <v>0</v>
       </c>
       <c r="Q405">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="406" spans="1:18">
@@ -21685,7 +21685,7 @@
         <v>1</v>
       </c>
       <c r="Q406">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="R406">
         <v>22</v>
@@ -21735,7 +21735,7 @@
         <v>0</v>
       </c>
       <c r="Q407">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="408" spans="1:18">
@@ -21785,7 +21785,7 @@
         <v>1</v>
       </c>
       <c r="Q408">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="R408">
         <v>8</v>
@@ -21835,7 +21835,7 @@
         <v>0</v>
       </c>
       <c r="Q409">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="410" spans="1:18">
@@ -21882,7 +21882,7 @@
         <v>0</v>
       </c>
       <c r="Q410">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="411" spans="1:18">
@@ -21929,7 +21929,7 @@
         <v>0</v>
       </c>
       <c r="Q411">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="412" spans="1:18">
@@ -21979,7 +21979,7 @@
         <v>1</v>
       </c>
       <c r="Q412">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="R412">
         <v>0</v>
@@ -22032,7 +22032,7 @@
         <v>1</v>
       </c>
       <c r="Q413">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="R413">
         <v>15</v>
@@ -22085,7 +22085,7 @@
         <v>0</v>
       </c>
       <c r="Q414">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="415" spans="1:18">
@@ -22135,7 +22135,7 @@
         <v>1</v>
       </c>
       <c r="Q415">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="R415">
         <v>9</v>
@@ -22185,7 +22185,7 @@
         <v>0</v>
       </c>
       <c r="Q416">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="417" spans="1:18">
@@ -22232,7 +22232,7 @@
         <v>0</v>
       </c>
       <c r="Q417">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="418" spans="1:18">
@@ -22279,7 +22279,7 @@
         <v>0</v>
       </c>
       <c r="Q418">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="419" spans="1:18">
@@ -22326,7 +22326,7 @@
         <v>0</v>
       </c>
       <c r="Q419">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="420" spans="1:18">
@@ -22373,7 +22373,7 @@
         <v>0</v>
       </c>
       <c r="Q420">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="421" spans="1:18">
@@ -22420,7 +22420,7 @@
         <v>0</v>
       </c>
       <c r="Q421">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="422" spans="1:18">
@@ -22467,7 +22467,7 @@
         <v>0</v>
       </c>
       <c r="Q422">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="423" spans="1:18">
@@ -22517,7 +22517,7 @@
         <v>1</v>
       </c>
       <c r="Q423">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="R423">
         <v>21</v>
@@ -22567,7 +22567,7 @@
         <v>0</v>
       </c>
       <c r="Q424">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="425" spans="1:18">
@@ -22614,7 +22614,7 @@
         <v>0</v>
       </c>
       <c r="Q425">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="426" spans="1:18">
@@ -22661,7 +22661,7 @@
         <v>0</v>
       </c>
       <c r="Q426">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="427" spans="1:18">
@@ -22708,7 +22708,7 @@
         <v>0</v>
       </c>
       <c r="Q427">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="428" spans="1:18">
@@ -22755,7 +22755,7 @@
         <v>0</v>
       </c>
       <c r="Q428">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="429" spans="1:18">
@@ -22802,7 +22802,7 @@
         <v>0</v>
       </c>
       <c r="Q429">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="430" spans="1:18">
@@ -22852,7 +22852,7 @@
         <v>1</v>
       </c>
       <c r="Q430">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="R430">
         <v>15</v>
@@ -22905,7 +22905,7 @@
         <v>1</v>
       </c>
       <c r="Q431">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="R431">
         <v>19</v>
@@ -22955,7 +22955,7 @@
         <v>0</v>
       </c>
       <c r="Q432">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="433" spans="1:18">
@@ -23002,7 +23002,7 @@
         <v>0</v>
       </c>
       <c r="Q433">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="434" spans="1:18">
@@ -23052,7 +23052,7 @@
         <v>1</v>
       </c>
       <c r="Q434">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="R434">
         <v>0</v>
@@ -23102,7 +23102,7 @@
         <v>0</v>
       </c>
       <c r="Q435">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="436" spans="1:18">
@@ -23149,7 +23149,7 @@
         <v>0</v>
       </c>
       <c r="Q436">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="437" spans="1:18">
@@ -23193,7 +23193,7 @@
         <v>0</v>
       </c>
       <c r="Q437">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="438" spans="1:18">
@@ -23240,7 +23240,7 @@
         <v>0</v>
       </c>
       <c r="Q438">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="439" spans="1:18">
@@ -23290,7 +23290,7 @@
         <v>1</v>
       </c>
       <c r="Q439">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="R439">
         <v>31</v>
@@ -23340,7 +23340,7 @@
         <v>0</v>
       </c>
       <c r="Q440">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="441" spans="1:18">
@@ -23387,7 +23387,7 @@
         <v>0</v>
       </c>
       <c r="Q441">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="442" spans="1:18">
@@ -23437,7 +23437,7 @@
         <v>0</v>
       </c>
       <c r="Q442">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="443" spans="1:18">
@@ -23487,7 +23487,7 @@
         <v>1</v>
       </c>
       <c r="Q443">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="R443">
         <v>22</v>
@@ -23540,7 +23540,7 @@
         <v>0</v>
       </c>
       <c r="Q444">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="445" spans="1:18">
@@ -23590,7 +23590,7 @@
         <v>1</v>
       </c>
       <c r="Q445">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="R445">
         <v>13</v>
@@ -23643,7 +23643,7 @@
         <v>0</v>
       </c>
       <c r="Q446">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="447" spans="1:18">
@@ -23690,7 +23690,7 @@
         <v>0</v>
       </c>
       <c r="Q447">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="448" spans="1:18">
@@ -23737,7 +23737,7 @@
         <v>0</v>
       </c>
       <c r="Q448">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="449" spans="1:18">
@@ -23784,7 +23784,7 @@
         <v>0</v>
       </c>
       <c r="Q449">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="450" spans="1:18">
@@ -23831,7 +23831,7 @@
         <v>0</v>
       </c>
       <c r="Q450">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="451" spans="1:18">
@@ -23878,7 +23878,7 @@
         <v>0</v>
       </c>
       <c r="Q451">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="452" spans="1:18">
@@ -23925,7 +23925,7 @@
         <v>0</v>
       </c>
       <c r="Q452">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="453" spans="1:18">
@@ -23975,7 +23975,7 @@
         <v>1</v>
       </c>
       <c r="Q453">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="R453">
         <v>15</v>
@@ -24028,7 +24028,7 @@
         <v>0</v>
       </c>
       <c r="Q454">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="455" spans="1:18">
@@ -24078,7 +24078,7 @@
         <v>1</v>
       </c>
       <c r="Q455">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R455">
         <v>25</v>
@@ -24128,7 +24128,7 @@
         <v>0</v>
       </c>
       <c r="Q456">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="457" spans="1:18">
@@ -24178,7 +24178,7 @@
         <v>1</v>
       </c>
       <c r="Q457">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R457">
         <v>12</v>
@@ -24231,7 +24231,7 @@
         <v>0</v>
       </c>
       <c r="Q458">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="459" spans="1:18">
@@ -24281,7 +24281,7 @@
         <v>1</v>
       </c>
       <c r="Q459">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R459">
         <v>21</v>
@@ -24331,7 +24331,7 @@
         <v>0</v>
       </c>
       <c r="Q460">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="461" spans="1:18">
@@ -24375,7 +24375,7 @@
         <v>0</v>
       </c>
       <c r="Q461">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="462" spans="1:18">
@@ -24422,7 +24422,7 @@
         <v>0</v>
       </c>
       <c r="Q462">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="463" spans="1:18">
@@ -24469,7 +24469,7 @@
         <v>0</v>
       </c>
       <c r="Q463">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="464" spans="1:18">
@@ -24516,7 +24516,7 @@
         <v>0</v>
       </c>
       <c r="Q464">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="465" spans="1:18">
@@ -24563,7 +24563,7 @@
         <v>0</v>
       </c>
       <c r="Q465">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="466" spans="1:18">
@@ -24610,7 +24610,7 @@
         <v>0</v>
       </c>
       <c r="Q466">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="467" spans="1:18">
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="Q467">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="468" spans="1:18">
@@ -24704,7 +24704,7 @@
         <v>0</v>
       </c>
       <c r="Q468">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="469" spans="1:18">
@@ -24751,7 +24751,7 @@
         <v>0</v>
       </c>
       <c r="Q469">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="470" spans="1:18">
@@ -24801,7 +24801,7 @@
         <v>1</v>
       </c>
       <c r="Q470">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R470">
         <v>13</v>
@@ -24851,7 +24851,7 @@
         <v>0</v>
       </c>
       <c r="Q471">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="472" spans="1:18">
@@ -24901,7 +24901,7 @@
         <v>1</v>
       </c>
       <c r="Q472">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R472">
         <v>11</v>
@@ -24951,7 +24951,7 @@
         <v>0</v>
       </c>
       <c r="Q473">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="474" spans="1:18">
@@ -24998,7 +24998,7 @@
         <v>0</v>
       </c>
       <c r="Q474">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="475" spans="1:18">
@@ -25045,7 +25045,7 @@
         <v>0</v>
       </c>
       <c r="Q475">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="476" spans="1:18">
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="Q476">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="477" spans="1:18">
@@ -25139,7 +25139,7 @@
         <v>0</v>
       </c>
       <c r="Q477">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="478" spans="1:18">
@@ -25186,7 +25186,7 @@
         <v>0</v>
       </c>
       <c r="Q478">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="479" spans="1:18">
@@ -25233,7 +25233,7 @@
         <v>0</v>
       </c>
       <c r="Q479">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="480" spans="1:18">
@@ -25283,7 +25283,7 @@
         <v>1</v>
       </c>
       <c r="Q480">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R480">
         <v>24</v>
@@ -25336,7 +25336,7 @@
         <v>0</v>
       </c>
       <c r="Q481">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="482" spans="1:18">
@@ -25386,7 +25386,7 @@
         <v>1</v>
       </c>
       <c r="Q482">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R482">
         <v>16</v>
@@ -25436,7 +25436,7 @@
         <v>0</v>
       </c>
       <c r="Q483">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="484" spans="1:18">
@@ -25486,7 +25486,7 @@
         <v>1</v>
       </c>
       <c r="Q484">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R484">
         <v>5</v>
@@ -25536,7 +25536,7 @@
         <v>0</v>
       </c>
       <c r="Q485">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="486" spans="1:18">
@@ -25586,7 +25586,7 @@
         <v>1</v>
       </c>
       <c r="Q486">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R486">
         <v>7</v>
@@ -25639,7 +25639,7 @@
         <v>1</v>
       </c>
       <c r="Q487">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R487">
         <v>10</v>
@@ -25689,7 +25689,7 @@
         <v>0</v>
       </c>
       <c r="Q488">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="489" spans="1:18">
@@ -25739,7 +25739,7 @@
         <v>1</v>
       </c>
       <c r="Q489">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="R489">
         <v>18</v>
@@ -25792,7 +25792,7 @@
         <v>0</v>
       </c>
       <c r="Q490">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="491" spans="1:18">
@@ -25842,7 +25842,7 @@
         <v>1</v>
       </c>
       <c r="Q491">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="R491">
         <v>11</v>
@@ -25895,7 +25895,7 @@
         <v>0</v>
       </c>
       <c r="Q492">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="493" spans="1:18">
@@ -25945,7 +25945,7 @@
         <v>1</v>
       </c>
       <c r="Q493">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="R493">
         <v>10</v>
@@ -25995,7 +25995,7 @@
         <v>0</v>
       </c>
       <c r="Q494">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="495" spans="1:18">
@@ -26045,7 +26045,7 @@
         <v>1</v>
       </c>
       <c r="Q495">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R495">
         <v>9</v>
@@ -26095,7 +26095,7 @@
         <v>0</v>
       </c>
       <c r="Q496">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="497" spans="1:18">
@@ -26142,7 +26142,7 @@
         <v>0</v>
       </c>
       <c r="Q497">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="498" spans="1:18">
@@ -26189,7 +26189,7 @@
         <v>0</v>
       </c>
       <c r="Q498">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="499" spans="1:18">
@@ -26236,7 +26236,7 @@
         <v>0</v>
       </c>
       <c r="Q499">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="500" spans="1:18">
@@ -26283,7 +26283,7 @@
         <v>0</v>
       </c>
       <c r="Q500">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="501" spans="1:18">
@@ -26333,7 +26333,7 @@
         <v>1</v>
       </c>
       <c r="Q501">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="R501">
         <v>11</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="Q502">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="503" spans="1:18">
@@ -26436,7 +26436,7 @@
         <v>1</v>
       </c>
       <c r="Q503">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="R503">
         <v>12</v>
@@ -26489,7 +26489,7 @@
         <v>0</v>
       </c>
       <c r="Q504">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="505" spans="1:18">
@@ -26539,7 +26539,7 @@
         <v>1</v>
       </c>
       <c r="Q505">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="R505">
         <v>12</v>
@@ -26589,7 +26589,7 @@
         <v>0</v>
       </c>
       <c r="Q506">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="507" spans="1:18">
@@ -26636,7 +26636,7 @@
         <v>0</v>
       </c>
       <c r="Q507">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="508" spans="1:18">
@@ -26683,7 +26683,7 @@
         <v>0</v>
       </c>
       <c r="Q508">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="509" spans="1:18">
@@ -26733,7 +26733,7 @@
         <v>1</v>
       </c>
       <c r="Q509">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="R509">
         <v>28</v>
@@ -26786,7 +26786,7 @@
         <v>1</v>
       </c>
       <c r="Q510">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="R510">
         <v>20</v>
@@ -26839,7 +26839,7 @@
         <v>0</v>
       </c>
       <c r="Q511">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="512" spans="1:18">
@@ -26886,7 +26886,7 @@
         <v>0</v>
       </c>
       <c r="Q512">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="513" spans="1:18">
@@ -26933,7 +26933,7 @@
         <v>0</v>
       </c>
       <c r="Q513">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="514" spans="1:18">
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="Q514">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="515" spans="1:18">
@@ -27030,7 +27030,7 @@
         <v>1</v>
       </c>
       <c r="Q515">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="R515">
         <v>7</v>
@@ -27083,7 +27083,7 @@
         <v>1</v>
       </c>
       <c r="Q516">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="R516">
         <v>13</v>
@@ -27136,7 +27136,7 @@
         <v>0</v>
       </c>
       <c r="Q517">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="518" spans="1:18">
@@ -27186,7 +27186,7 @@
         <v>1</v>
       </c>
       <c r="Q518">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="R518">
         <v>7</v>
@@ -27236,7 +27236,7 @@
         <v>0</v>
       </c>
       <c r="Q519">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="520" spans="1:18">
@@ -27283,7 +27283,7 @@
         <v>0</v>
       </c>
       <c r="Q520">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="521" spans="1:18">
@@ -27330,7 +27330,7 @@
         <v>0</v>
       </c>
       <c r="Q521">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="522" spans="1:18">
@@ -27380,7 +27380,7 @@
         <v>1</v>
       </c>
       <c r="Q522">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="R522">
         <v>18</v>
@@ -27433,7 +27433,7 @@
         <v>1</v>
       </c>
       <c r="Q523">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="R523">
         <v>13</v>
@@ -27489,7 +27489,7 @@
         <v>1</v>
       </c>
       <c r="Q524">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="R524">
         <v>3</v>
@@ -27533,10 +27533,10 @@
         <v>1</v>
       </c>
       <c r="P525" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q525">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
     <row r="526" spans="1:18">
@@ -27577,7 +27577,7 @@
         <v>0</v>
       </c>
       <c r="Q526">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
